--- a/datamining/final_data/sorted1967_nltk.xlsx
+++ b/datamining/final_data/sorted1967_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LB2"/>
+  <dimension ref="A1:JM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,1542 +462,1337 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>child</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>children</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>page</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>school</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>page</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>high</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>boy</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>'s</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>association</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>problems</t>
+          <t>national</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>underachiever</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>association</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>underachiever</t>
+          <t>intelligence</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>editorial</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>editorial</t>
+          <t>heard</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>new</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>mental</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>intelligence</t>
+          <t>health</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>students</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>sixth</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>mental</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>development</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>''</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>''</t>
+          <t>age</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>behavior</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>guidance</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>concerning</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>behavior</t>
+          <t>comments</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>sixth</t>
+          <t>nagc</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>comments</t>
+          <t>individuals</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>concerning</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>handicap</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>guidance</t>
+          <t>girl</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>case</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>first</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>nagc</t>
+          <t>n't</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>tips</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>handicap</t>
+          <t>smarter</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>girls</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>heard</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>tips</t>
+          <t>one</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>special</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>research</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>girl</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>being</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>study</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>arithmetic</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>state</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>legislation</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>helping</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>``</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>legislation</t>
+          <t>functioning</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>girls</t>
+          <t>quarterly</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>encounter</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>does</t>
+          <t>wholly</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>involved</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>functioning</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>that</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>arithmetic</t>
+          <t>teach</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>``</t>
+          <t>plea</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>speech</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>ninth</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>laws</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>quarterly</t>
+          <t>constitution</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>career</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>introduction</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>idea</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>mentally</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>superior</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>sheet</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
           <t>appraisal</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>sheet</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>helping</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>introduction</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>career</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>n't</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>smarter</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>why</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>intellectual</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>implications</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>continuing</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>constant</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>block</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>remain</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>commandments</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>fourth</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>encounter</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>teachers</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>ninth</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>teach</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>self-confidence</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>fifth</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>acquires</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>illness</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>feigned</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>superior</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>speech</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>mentally</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>involved</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>wholly</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>plea</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>acquires</t>
-        </is>
-      </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>fifth</t>
+          <t>prophets</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>self-confidence</t>
+          <t>hippies</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>person</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>adults</t>
+          <t>makes</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
+          <t>growth</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>narrative</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>preschool</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>handicapped</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>educationally</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>neurologically</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>culturally</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>disadvantaged</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
           <t>occupational</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>disadvantaged</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>persistence</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>attitudes</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>toward</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>changes</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>toward</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>culturally</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>by</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>constitution</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>laws</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>growth</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>preschool</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>persistence</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>narrative</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>remain</t>
-        </is>
-      </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>attitudes</t>
+          <t>information</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>concepts</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>constant</t>
+          <t>sophomore</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>block</t>
+          <t>drop-out</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>after</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>continuing</t>
+          <t>give</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>shape</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>third</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>commandments</t>
+          <t>socially</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>achieving</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>makes</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>idea</t>
+          <t>measurement</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>cpm</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>sophomore</t>
+          <t>crosscultural</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>dam</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>drop-out</t>
+          <t>like</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>cpm</t>
+          <t>ways</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>crosscultural</t>
+          <t>social</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>dam</t>
+          <t>help</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>senior</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>handicapped</t>
+          <t>medical</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>neurologically</t>
+          <t>ambitions</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>prophets</t>
+          <t>director</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>educationally</t>
+          <t>report</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>executive</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
+          <t>annual</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
           <t>1966</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>concepts</t>
-        </is>
-      </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>eighth</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>inventory</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>annual</t>
+          <t>judy</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>director</t>
+          <t>scout</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>executive</t>
+          <t>inquiry</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>sew</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>student</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>loner</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>ambitions</t>
+          <t>harold</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>shape</t>
+          <t>sixteen-year-old</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>junior</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>ways</t>
+          <t>hammond</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>alternative</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>hippies</t>
+          <t>position</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>inquiry</t>
+          <t>preparing</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>medical</t>
+          <t>tots</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>inventory</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>like</t>
+          <t>operating</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>senior</t>
+          <t>methods</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>partum</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>managing</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>non-gifted</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>gains</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
           <t>forming</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>methods</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>local</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>chapter</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>managing</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>partum</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>operating</t>
-        </is>
-      </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>achieving</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>but</t>
+          <t>diminishing</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>tim</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>socially</t>
+          <t>home</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>i.q</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>third</t>
+          <t>rising</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>harold</t>
+          <t>seventh</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>junior</t>
+          <t>low</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>loner</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>hammond</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>sixteen-year-old</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>scores</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>comparison</t>
+          <t>lives</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>between</t>
+          <t>insights</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>emergent</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>preparing</t>
+          <t>bibilical</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>diminishing</t>
+          <t>bestow</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>solutions</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>tots</t>
+          <t>rioting</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>sew</t>
+          <t>possible</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>scout</t>
+          <t>perspectives</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>i.q</t>
+          <t>mankind</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>eighth</t>
+          <t>gifts</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>country</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>tim</t>
+          <t>used</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>judy</t>
+          <t>1967-68</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>seventh</t>
+          <t>academically-able</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>alternative</t>
+          <t>back</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>non-gifted</t>
+          <t>program</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>instruments</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>gains</t>
+          <t>feed</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>rising</t>
+          <t>birmingham</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>way</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>method</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>value</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>self-concept</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>parenting</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>counseling</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>birmingham</t>
+          <t>better</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>feed</t>
+          <t>average</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>1967-68</t>
+          <t>compare</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>know</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>academically-able</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>culled</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>instruments</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>observations</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>insights</t>
+          <t>suggested</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>lives</t>
+          <t>written</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>emergent</t>
+          <t>ideas</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>bibilical</t>
+          <t>dramatizations</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>bestow</t>
+          <t>phoned</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>which</t>
+          <t>conversations</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>rioting</t>
+          <t>role-playing</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>our</t>
+          <t>profligates-</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>counseling</t>
+          <t>played</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>saints</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>better</t>
+          <t>shirkers</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>things</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>true</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>solutions</t>
+          <t>part</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>possible</t>
+          <t>many</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>perspectives</t>
+          <t>create</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>gifts</t>
+          <t>called</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>mankind</t>
+          <t>photo</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>officials</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>america</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>method</t>
+          <t>isaacs</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>press</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>compare</t>
+          <t>receiving</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>shows</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>if</t>
+          <t>winning</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>f.</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>editor</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>way</t>
+          <t>citation</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>america</t>
+          <t>award</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>themselves</t>
+          <t>ann</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>citation</t>
+          <t>wiley</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>editor</t>
+          <t>york</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>winning</t>
+          <t>j.</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>shows</t>
+          <t>336</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>suggested</t>
+          <t>john</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>ann</t>
+          <t>edited</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>written</t>
+          <t>p.</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>conversations</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>receiving</t>
+          <t>c.</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>f.</t>
+          <t>d.</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>isaacs</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>review</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>e.</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>photo</t>
+          <t>demos</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>award</t>
+          <t>sons</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>officials</t>
+          <t>gowan</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>observations</t>
+          <t>torrance</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>dramatizations</t>
-        </is>
-      </c>
-      <c r="JN1" s="1" t="inlineStr">
-        <is>
-          <t>culled</t>
-        </is>
-      </c>
-      <c r="JO1" s="1" t="inlineStr">
-        <is>
-          <t>ideas</t>
-        </is>
-      </c>
-      <c r="JP1" s="1" t="inlineStr">
-        <is>
-          <t>role-playing</t>
-        </is>
-      </c>
-      <c r="JQ1" s="1" t="inlineStr">
-        <is>
-          <t>phoned</t>
-        </is>
-      </c>
-      <c r="JR1" s="1" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="JS1" s="1" t="inlineStr">
-        <is>
-          <t>its</t>
-        </is>
-      </c>
-      <c r="JT1" s="1" t="inlineStr">
-        <is>
-          <t>pp</t>
-        </is>
-      </c>
-      <c r="JU1" s="1" t="inlineStr">
-        <is>
-          <t>p.</t>
-        </is>
-      </c>
-      <c r="JV1" s="1" t="inlineStr">
-        <is>
-          <t>have</t>
-        </is>
-      </c>
-      <c r="JW1" s="1" t="inlineStr">
-        <is>
-          <t>create</t>
-        </is>
-      </c>
-      <c r="JX1" s="1" t="inlineStr">
-        <is>
-          <t>called</t>
-        </is>
-      </c>
-      <c r="JY1" s="1" t="inlineStr">
-        <is>
-          <t>been</t>
-        </is>
-      </c>
-      <c r="JZ1" s="1" t="inlineStr">
-        <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="KA1" s="1" t="inlineStr">
-        <is>
-          <t>sons</t>
-        </is>
-      </c>
-      <c r="KB1" s="1" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="KC1" s="1" t="inlineStr">
-        <is>
-          <t>review</t>
-        </is>
-      </c>
-      <c r="KD1" s="1" t="inlineStr">
-        <is>
-          <t>most</t>
-        </is>
-      </c>
-      <c r="KE1" s="1" t="inlineStr">
-        <is>
-          <t>torrance</t>
-        </is>
-      </c>
-      <c r="KF1" s="1" t="inlineStr">
-        <is>
-          <t>wiley</t>
-        </is>
-      </c>
-      <c r="KG1" s="1" t="inlineStr">
-        <is>
-          <t>york</t>
-        </is>
-      </c>
-      <c r="KH1" s="1" t="inlineStr">
-        <is>
-          <t>336</t>
-        </is>
-      </c>
-      <c r="KI1" s="1" t="inlineStr">
-        <is>
-          <t>many</t>
-        </is>
-      </c>
-      <c r="KJ1" s="1" t="inlineStr">
-        <is>
-          <t>saints</t>
-        </is>
-      </c>
-      <c r="KK1" s="1" t="inlineStr">
-        <is>
-          <t>part</t>
-        </is>
-      </c>
-      <c r="KL1" s="1" t="inlineStr">
-        <is>
-          <t>played</t>
-        </is>
-      </c>
-      <c r="KM1" s="1" t="inlineStr">
-        <is>
-          <t>gowan</t>
-        </is>
-      </c>
-      <c r="KN1" s="1" t="inlineStr">
-        <is>
           <t>g.</t>
-        </is>
-      </c>
-      <c r="KO1" s="1" t="inlineStr">
-        <is>
-          <t>edited</t>
-        </is>
-      </c>
-      <c r="KP1" s="1" t="inlineStr">
-        <is>
-          <t>e.</t>
-        </is>
-      </c>
-      <c r="KQ1" s="1" t="inlineStr">
-        <is>
-          <t>j.</t>
-        </is>
-      </c>
-      <c r="KR1" s="1" t="inlineStr">
-        <is>
-          <t>john</t>
-        </is>
-      </c>
-      <c r="KS1" s="1" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="KT1" s="1" t="inlineStr">
-        <is>
-          <t>things</t>
-        </is>
-      </c>
-      <c r="KU1" s="1" t="inlineStr">
-        <is>
-          <t>demos</t>
-        </is>
-      </c>
-      <c r="KV1" s="1" t="inlineStr">
-        <is>
-          <t>they</t>
-        </is>
-      </c>
-      <c r="KW1" s="1" t="inlineStr">
-        <is>
-          <t>them</t>
-        </is>
-      </c>
-      <c r="KX1" s="1" t="inlineStr">
-        <is>
-          <t>shirkers</t>
-        </is>
-      </c>
-      <c r="KY1" s="1" t="inlineStr">
-        <is>
-          <t>d.</t>
-        </is>
-      </c>
-      <c r="KZ1" s="1" t="inlineStr">
-        <is>
-          <t>c.</t>
-        </is>
-      </c>
-      <c r="LA1" s="1" t="inlineStr">
-        <is>
-          <t>profligates-</t>
-        </is>
-      </c>
-      <c r="LB1" s="1" t="inlineStr">
-        <is>
-          <t>you</t>
         </is>
       </c>
     </row>
@@ -2009,190 +1804,190 @@
         <v>1967</v>
       </c>
       <c r="C2" t="n">
-        <v>2.67</v>
+        <v>2.84</v>
       </c>
       <c r="D2" t="n">
         <v>2.44</v>
       </c>
       <c r="E2" t="n">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="F2" t="n">
         <v>2.37</v>
       </c>
       <c r="G2" t="n">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.2</v>
+        <v>2.01</v>
       </c>
       <c r="I2" t="n">
-        <v>2.17</v>
+        <v>1.94</v>
       </c>
       <c r="J2" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="K2" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="L2" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="M2" t="n">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="N2" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="O2" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="R2" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="T2" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="U2" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="W2" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="X2" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.92</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AF2" t="n">
         <v>0.86</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.86</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="BM2" t="n">
         <v>0.61</v>
@@ -2201,43 +1996,43 @@
         <v>0.61</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.61</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BZ2" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="CB2" t="n">
         <v>0.55</v>
@@ -2258,25 +2053,25 @@
         <v>0.54</v>
       </c>
       <c r="CH2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="CL2" t="n">
         <v>0.53</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CM2" t="n">
         <v>0.53</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CN2" t="n">
         <v>0.53</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.52</v>
       </c>
       <c r="CO2" t="n">
         <v>0.52</v>
@@ -2309,10 +2104,10 @@
         <v>0.52</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="DA2" t="n">
         <v>0.51</v>
@@ -2321,28 +2116,28 @@
         <v>0.51</v>
       </c>
       <c r="DC2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DE2" t="n">
         <v>0.49</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DF2" t="n">
         <v>0.49</v>
       </c>
-      <c r="DE2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0.48</v>
-      </c>
       <c r="DG2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="DK2" t="n">
         <v>0.48</v>
@@ -2366,16 +2161,16 @@
         <v>0.48</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="DV2" t="n">
         <v>0.47</v>
@@ -2396,10 +2191,10 @@
         <v>0.47</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="ED2" t="n">
         <v>0.46</v>
@@ -2414,19 +2209,19 @@
         <v>0.46</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="EM2" t="n">
         <v>0.44</v>
@@ -2435,10 +2230,10 @@
         <v>0.44</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="EQ2" t="n">
         <v>0.43</v>
@@ -2450,19 +2245,19 @@
         <v>0.43</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="EY2" t="n">
         <v>0.42</v>
@@ -2471,43 +2266,43 @@
         <v>0.42</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="FN2" t="n">
         <v>0.4</v>
@@ -2540,205 +2335,205 @@
         <v>0.39</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="II2" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="IM2" t="n">
         <v>0.25</v>
@@ -2762,186 +2557,63 @@
         <v>0.25</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="JF2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="LB2" t="n">
         <v>0.21</v>
       </c>
     </row>
